--- a/res/map.xlsx
+++ b/res/map.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="4">
   <si>
-    <t xml:space="preserve">plank</t>
+    <t xml:space="preserve">marker</t>
   </si>
   <si>
     <t xml:space="preserve">grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plank</t>
   </si>
   <si>
     <t xml:space="preserve">ground</t>
@@ -126,67 +129,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AF36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9:P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
@@ -221,70 +196,38 @@
         <v>1</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
         <v>1</v>
       </c>
@@ -319,70 +262,38 @@
         <v>1</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
         <v>1</v>
       </c>
@@ -417,70 +328,38 @@
         <v>1</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
         <v>1</v>
       </c>
@@ -500,85 +379,53 @@
         <v>1</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
         <v>1</v>
       </c>
@@ -598,85 +445,53 @@
         <v>1</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
         <v>1</v>
       </c>
@@ -696,85 +511,53 @@
         <v>1</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
         <v>1</v>
       </c>
@@ -794,85 +577,53 @@
         <v>1</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
         <v>1</v>
       </c>
@@ -907,69 +658,41 @@
         <v>1</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
       <c r="P9" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>1</v>
@@ -1005,70 +728,38 @@
         <v>1</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
       <c r="Q10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1088,13 +779,13 @@
         <v>1</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z10" s="1" t="s">
         <v>1</v>
@@ -1103,70 +794,38 @@
         <v>1</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1186,13 +845,13 @@
         <v>1</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z11" s="1" t="s">
         <v>1</v>
@@ -1201,70 +860,38 @@
         <v>1</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
       <c r="Q12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1299,70 +926,38 @@
         <v>1</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
       <c r="Q13" s="1" t="s">
         <v>1</v>
       </c>
@@ -1397,70 +992,38 @@
         <v>1</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
       <c r="Q14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1495,70 +1058,22 @@
         <v>1</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="Q15" s="1" t="s">
         <v>1</v>
       </c>
@@ -1593,70 +1108,37 @@
         <v>1</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
       <c r="Q16" s="1" t="s">
         <v>1</v>
       </c>
@@ -1691,19 +1173,19 @@
         <v>1</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1789,19 +1271,19 @@
         <v>1</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1887,19 +1369,19 @@
         <v>1</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
